--- a/public/data/profit/profit_table_zimbabwe.xlsx
+++ b/public/data/profit/profit_table_zimbabwe.xlsx
@@ -1514,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.66</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1671,16 +1671,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-31.56</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-45.97</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-4.42</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-4.43</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.35</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-4.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1754,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.47</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-14.85</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1831,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-35.09</v>
+        <v>-74.94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.21</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1852,40 +1852,40 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-35.08</v>
+        <v>-76.15</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-21.14</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-22.75</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-11.49</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-21.37</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-21.61</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-17.81</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-19.39</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-19.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1908,13 +1908,13 @@
         <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>-44.37</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-82.21</v>
+        <v>-67.82</v>
       </c>
       <c r="F8" t="n">
-        <v>-101.29</v>
+        <v>-95.86</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1926,55 +1926,55 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-42.03</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-87.33</v>
+        <v>-80.38</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.74</v>
+        <v>-98.83</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-81.76</v>
+        <v>-64.5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-74.11</v>
+        <v>-79.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>126.94</v>
+        <v>364.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-86.62</v>
+        <v>-75.94</v>
       </c>
       <c r="T8" t="n">
-        <v>-86.92</v>
+        <v>-76.15</v>
       </c>
       <c r="U8" t="n">
-        <v>-27.73</v>
+        <v>-17.66</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-47.28</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-25.02</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-67.07</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="9">
@@ -1988,73 +1988,73 @@
         <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.03</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-38.39</v>
+        <v>-46.03</v>
       </c>
       <c r="F9" t="n">
-        <v>-49.9</v>
+        <v>-48.67</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-12.38</v>
+        <v>13.97</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-13.86</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-35.12</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-48.99</v>
+        <v>-46.74</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-38.27</v>
+        <v>-53.11</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-30.31</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.61</v>
+        <v>444.33</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-39.54</v>
+        <v>-60.75</v>
       </c>
       <c r="T9" t="n">
-        <v>-40.76</v>
+        <v>-62.94</v>
       </c>
       <c r="U9" t="n">
-        <v>-18.93</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-18.46</v>
+        <v>-8.01</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-5.95</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-31.97</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="10">
@@ -2068,37 +2068,37 @@
         <v>91</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.09</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-70.83</v>
+        <v>-37.87</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.64</v>
+        <v>46.6</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-15.89</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-70.13</v>
+        <v>-37.17</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-46.74</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2107,34 +2107,34 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>174.38</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-46.76</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-49.12</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-20.97</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-23.39</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-9.73</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-38.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2148,37 +2148,37 @@
         <v>92</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.95</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-41.18</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-35.75</v>
+        <v>-75.33</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.25</v>
+        <v>63.44</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-17.44</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-36.77</v>
+        <v>-84.58</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-41.36</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2187,34 +2187,34 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-48.83</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-42.44</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-42.57</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-44.09</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-14.86</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-39.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2228,73 +2228,73 @@
         <v>93</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.34</v>
+        <v>-22.14</v>
       </c>
       <c r="F12" t="n">
-        <v>-46.47</v>
+        <v>-100.34</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-25.86</v>
+        <v>-53.49</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-12.53</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-50.41</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-42.98</v>
+        <v>-92.05</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-50.64</v>
+        <v>-27.11</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-42.21</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-25.26</v>
+        <v>20.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-51.3</v>
+        <v>-27.71</v>
       </c>
       <c r="T12" t="n">
-        <v>-50.84</v>
+        <v>-26.96</v>
       </c>
       <c r="U12" t="n">
-        <v>-39.78</v>
+        <v>-10.72</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-42.31</v>
+        <v>-22.23</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-46.04</v>
+        <v>-10.61</v>
       </c>
     </row>
     <row r="13">
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-12.04</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2388,73 +2388,73 @@
         <v>95</v>
       </c>
       <c r="D14" t="n">
-        <v>-61.03</v>
+        <v>-9.34</v>
       </c>
       <c r="E14" t="n">
-        <v>-56.88</v>
+        <v>-40.5</v>
       </c>
       <c r="F14" t="n">
-        <v>-120.62</v>
+        <v>-113.6</v>
       </c>
       <c r="G14" t="n">
-        <v>-65.97</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>59.81</v>
+        <v>137.72</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-62.06</v>
+        <v>-58.95</v>
       </c>
       <c r="K14" t="n">
-        <v>-144.98</v>
+        <v>-91.03</v>
       </c>
       <c r="L14" t="n">
-        <v>-127.61</v>
+        <v>-111.56</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-90.72</v>
+        <v>-75.49</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-135.76</v>
+        <v>-91.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.12</v>
+        <v>278.44</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-105.47</v>
+        <v>-88.68</v>
       </c>
       <c r="T14" t="n">
-        <v>-100.3</v>
+        <v>-87.23</v>
       </c>
       <c r="U14" t="n">
-        <v>-40.19</v>
+        <v>-5.34</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.61</v>
+        <v>97.77</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-20.91</v>
+        <v>132.95</v>
       </c>
       <c r="Z14" t="n">
-        <v>-69.2</v>
+        <v>-40.94</v>
       </c>
     </row>
     <row r="15">
@@ -2468,73 +2468,73 @@
         <v>96</v>
       </c>
       <c r="D15" t="n">
-        <v>-43.47</v>
+        <v>-22.3</v>
       </c>
       <c r="E15" t="n">
-        <v>-34.16</v>
+        <v>-33.67</v>
       </c>
       <c r="F15" t="n">
-        <v>-77.13</v>
+        <v>-88.36</v>
       </c>
       <c r="G15" t="n">
-        <v>-73.23</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20.01</v>
+        <v>102.13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-51.8</v>
+        <v>-93</v>
       </c>
       <c r="K15" t="n">
-        <v>-69.05</v>
+        <v>-181.89</v>
       </c>
       <c r="L15" t="n">
-        <v>-70.21</v>
+        <v>-95.02</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-56.25</v>
+        <v>-77.93</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-57.55</v>
+        <v>-101.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.44</v>
+        <v>150.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-59.36</v>
+        <v>-97.64</v>
       </c>
       <c r="T15" t="n">
-        <v>-63.52</v>
+        <v>-89.01</v>
       </c>
       <c r="U15" t="n">
-        <v>-21.7</v>
+        <v>18.86</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-32.33</v>
+        <v>-13.19</v>
       </c>
       <c r="X15" t="n">
-        <v>-4.11</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-20.04</v>
+        <v>65.17</v>
       </c>
       <c r="Z15" t="n">
-        <v>-39.84</v>
+        <v>-53.15</v>
       </c>
     </row>
     <row r="16">
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-15.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.81</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-15.06</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-12.02</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-11.16</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.91</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-11.3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2954,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-26.98</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-54.16</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-27.18</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.16</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-72.37</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-72.65</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-75.33</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-16.95</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-16.96</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3354,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.11</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.26</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-7.67</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-34.78</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-48.14</v>
+        <v>-78.72</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-11.16</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-47.25</v>
+        <v>-69.95</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-39.75</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3467,25 +3467,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>-21.14</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-39.93</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-40.02</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>-34.21</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-38.2</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>-34.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-5.44</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-17.2</v>
+        <v>-9.7</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-14.08</v>
+        <v>-0.06</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-18.3</v>
+        <v>-12.44</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-6.04</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-6.08</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-6.11</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-5.76</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>-5.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-11.26</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-29.74</v>
+        <v>-44.82</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-28.22</v>
+        <v>-36.16</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-11.52</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-8.64</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-11.51</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-11.53</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-10.88</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-11.31</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-11.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3671,16 +3671,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.01</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-12.09</v>
+        <v>-8.78</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-10.42</v>
+        <v>1.51</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3692,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-9.97</v>
+        <v>-11.79</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3707,25 +3707,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-3.2</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-6.65</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-7.76</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-6.43</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>-5.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.39</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-24.01</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-19.22</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-6.83</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3.34</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-6.89</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-6.89</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-7.76</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-6.73</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-6.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-17.31</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-14.09</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3852,40 +3852,40 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-17.3</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-4.21</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-4.08</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-4.21</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-4.21</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-4.18</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3911,34 +3911,34 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.88</v>
+        <v>4.92</v>
       </c>
       <c r="G33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>7.49</v>
+        <v>51.75</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-8.78</v>
+        <v>-6.92</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-5.46</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3947,34 +3947,34 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.2</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-6.49</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>14.93</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>28.39</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-8.45</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-25.69</v>
+        <v>-22.57</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-21.2</v>
+        <v>-12.17</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4012,40 +4012,40 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-25.76</v>
+        <v>-23.26</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-8.64</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-8.67</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-5.45</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-8.67</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-8.69</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-7.89</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-8.39</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>-8.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4074,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.15</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4151,34 +4151,34 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-81.28</v>
+        <v>-78.01</v>
       </c>
       <c r="F36" t="n">
-        <v>-111.74</v>
+        <v>-138.1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-65.22</v>
+        <v>-156.09</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-29.27</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-83.94</v>
+        <v>-79.9</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-83.81</v>
+        <v>-79.82</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4187,34 +4187,34 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.74</v>
+        <v>293.44</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>-84.33</v>
+        <v>-81.24</v>
       </c>
       <c r="T36" t="n">
-        <v>-85.11</v>
+        <v>-84.92</v>
       </c>
       <c r="U36" t="n">
-        <v>-73.83</v>
+        <v>-14.7</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-73.15</v>
+        <v>-30.26</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-28.71</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>-76.25</v>
+        <v>-58.29</v>
       </c>
     </row>
     <row r="37">
@@ -4234,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-12.71</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-11.23</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-12.56</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-176.41</v>
+        <v>-96.99</v>
       </c>
       <c r="F38" t="n">
-        <v>-140.82</v>
+        <v>-279.09</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-55.7</v>
+        <v>-87.41</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4332,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-84.07</v>
+        <v>-120.36</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-178.56</v>
+        <v>-100.59</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4347,25 +4347,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.02</v>
+        <v>314.57</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-177.67</v>
+        <v>-99.09</v>
       </c>
       <c r="T38" t="n">
-        <v>-179.99</v>
+        <v>-103.3</v>
       </c>
       <c r="U38" t="n">
-        <v>-137.14</v>
+        <v>-23.99</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-146.79</v>
+        <v>-41.46</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>-171.84</v>
+        <v>-88.35</v>
       </c>
     </row>
     <row r="39">
@@ -4474,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-12.47</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.15</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-12.04</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4554,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-19.01</v>
+        <v>-20.04</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-11.3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-18.03</v>
+        <v>-15.24</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-13.28</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-13.02</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-13.13</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-20.32</v>
+        <v>-20.04</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-9.45</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-66.29</v>
+        <v>-95.16</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4951,70 +4951,70 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-30.23</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-26.02</v>
+        <v>-37.21</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-10.31</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-48.19</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-23.69</v>
+        <v>-25.08</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-40.39</v>
+        <v>-40.65</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-32.97</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.88</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-40.9</v>
+        <v>-41.48</v>
       </c>
       <c r="T46" t="n">
-        <v>-41.44</v>
+        <v>-46.92</v>
       </c>
       <c r="U46" t="n">
-        <v>-33.51</v>
+        <v>-1.55</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-36.53</v>
+        <v>-19.2</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-42.55</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>-30.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5031,16 +5031,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-184.2</v>
+        <v>-63.82</v>
       </c>
       <c r="F47" t="n">
-        <v>-117.55</v>
+        <v>-286.41</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-74.56</v>
+        <v>-169.43</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5052,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-80.24</v>
+        <v>-145.44</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-186.15</v>
+        <v>-66.57</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5067,25 +5067,25 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>-21.2</v>
+        <v>182.01</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-184.88</v>
+        <v>-64.74</v>
       </c>
       <c r="T47" t="n">
-        <v>-186.7</v>
+        <v>-67.43</v>
       </c>
       <c r="U47" t="n">
-        <v>-156.38</v>
+        <v>-21.79</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>-162.59</v>
+        <v>-31.14</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>-182.03</v>
+        <v>-60.43</v>
       </c>
     </row>
     <row r="48">
@@ -5194,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-19.38</v>
+        <v>-41.25</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.14</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-18.94</v>
+        <v>-38.95</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5271,16 +5271,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-17.83</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-21.21</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5292,40 +5292,40 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-18.19</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-22.13</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>-21.63</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>-22.08</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5351,16 +5351,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.15</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-39.09</v>
+        <v>-53.45</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-22.51</v>
+        <v>-25.83</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -5372,40 +5372,40 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-39.48</v>
+        <v>-55.09</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-14.55</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>-8.72</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>-14.53</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-14.58</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>-13.88</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-14.31</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>-13.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5434,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-46.88</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-46.94</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-25.17</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-40.37</v>
+        <v>-65.01</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5606,55 +5606,55 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-10.67</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-41.05</v>
+        <v>-67.43</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-29.11</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>-28.85</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>-29.35</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>-26.77</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>-26.6</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>-17.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5671,16 +5671,16 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.75</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-20.17</v>
+        <v>-48.22</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-11.7</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -5692,40 +5692,40 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-20.25</v>
+        <v>-49.84</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-14.21</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-18.26</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>-14.25</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>-14.41</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>-13.22</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>-13.31</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>-12.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5751,70 +5751,70 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-44.81</v>
+        <v>-63.77</v>
       </c>
       <c r="F56" t="n">
-        <v>-43.18</v>
+        <v>-60.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-105.59</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-18.45</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-66.48</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-44.22</v>
+        <v>-65.62</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-47.64</v>
+        <v>-88.98</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>-51.04</v>
+        <v>-90.02</v>
       </c>
       <c r="Q56" t="n">
-        <v>-8.11</v>
+        <v>141.61</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>-47.4</v>
+        <v>-88.58</v>
       </c>
       <c r="T56" t="n">
-        <v>-47.98</v>
+        <v>-92.22</v>
       </c>
       <c r="U56" t="n">
-        <v>-45.56</v>
+        <v>-70.26</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>-44.4</v>
+        <v>-63.88</v>
       </c>
       <c r="X56" t="n">
-        <v>-103.38</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-58.74</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>-40.92</v>
+        <v>-42.18</v>
       </c>
     </row>
     <row r="57">
@@ -5914,13 +5914,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-14.22</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-13.07</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-14.25</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -5991,70 +5991,70 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>-28.47</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-59.38</v>
+        <v>-45.81</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-25.06</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-42.39</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-59.83</v>
+        <v>-47.99</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-27.95</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-29.83</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>-6.24</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-27.87</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-28.11</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>-27.24</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>-26.68</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>-42.15</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>-25.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6074,37 +6074,37 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-30.08</v>
+        <v>-16.94</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-10.25</v>
+        <v>49.88</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-23.81</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-32.02</v>
+        <v>-26.22</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-33.36</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>-33.26</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6113,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>-32.32</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-33.31</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-21.97</v>
+        <v>-13.78</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-17.98</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6172,19 +6172,19 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-22.13</v>
+        <v>-21.15</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-19.82</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>-19.8</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>-19.8</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -6234,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-37.52</v>
+        <v>-30.14</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-21.04</v>
+        <v>28.01</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6252,19 +6252,19 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-42.91</v>
+        <v>-52.25</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-48.18</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>-48.1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>-45.82</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>-48.13</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -6394,37 +6394,37 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-20.16</v>
+        <v>-9.04</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.94</v>
+        <v>80.99</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-21.66</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-23.22</v>
+        <v>-26.46</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-32.45</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>-32.27</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>-26.43</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>-32.35</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -6474,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-20.93</v>
+        <v>-15.13</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-10.44</v>
+        <v>65.96</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -6492,19 +6492,19 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-21.94</v>
+        <v>-22.11</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-21.72</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>-21.62</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-22.06</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-21.66</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-9.78</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -6572,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-10.14</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-9.61</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>-9.6</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -6593,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-9.55</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>-9.6</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -6634,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-11.98</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.18</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-12.15</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6954,13 +6954,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-14.92</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-9.11</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6972,31 +6972,31 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>-12.91</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>-3.46</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>-3.48</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>-3.47</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>-3.46</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7034,13 +7034,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-12.66</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-11.15</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -7052,34 +7052,34 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>-13.62</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>-6.31</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>-6.55</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>-6.32</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>-5.04</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>-4.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7194,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-17.64</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-13.75</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -7274,13 +7274,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.72</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>-13.99</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-14.59</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -7354,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-16.32</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-16.48</v>
+        <v>27.42</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -7372,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>-45.85</v>
+        <v>-57.9</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-1.81</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -7387,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>-1.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -7514,13 +7514,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.65</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-26.59</v>
+        <v>-7.4</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>-52.44</v>
+        <v>-58.69</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7591,16 +7591,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-47.58</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-47.59</v>
+        <v>-165.57</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-18.47</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -7612,13 +7612,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>-49.14</v>
+        <v>-162.95</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>-57.15</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -7627,25 +7627,25 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>-21.47</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>-57.34</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-57.3</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>-59.91</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>-53.96</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Z79" t="n">
-        <v>-18.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7674,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-14.79</v>
+        <v>-32.65</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-10.14</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-15.08</v>
+        <v>-41.47</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-14.35</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>-11.94</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>-14.42</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7914,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-18.34</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>-11.19</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>-16.53</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-17.41</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-17.37</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>-17.37</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.02</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-11.07</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-10.13</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>-12.38</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>-7.19</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -8113,19 +8113,19 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>-7.19</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-7.19</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>-7.01</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>-7.16</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8154,13 +8154,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-25.65</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-25.64</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-25.7</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -8231,16 +8231,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-34.39</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-35.72</v>
+        <v>-59.5</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>-13.11</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -8252,40 +8252,40 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>-36.09</v>
+        <v>-68.49</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>-36.88</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>-36.81</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>-22.2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>-36.92</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>-36.87</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>-33.41</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>-36.06</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>-28.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-11.29</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>-11.5</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -8391,16 +8391,16 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-31.24</v>
+        <v>-33.38</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-25.89</v>
+        <v>-13.42</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -8412,40 +8412,40 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>-27.93</v>
+        <v>-33.38</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>-19.31</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>-19.46</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>-8.02</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>-19.19</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>-19.41</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>-16.8</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>-17.94</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>-11.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8474,13 +8474,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-60.15</v>
+        <v>-36.19</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-46.63</v>
+        <v>-13.42</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>-59.42</v>
+        <v>-35.12</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -8551,70 +8551,70 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-36.39</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-38.38</v>
+        <v>-74.37</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>-21.41</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>-34.83</v>
+        <v>-81.14</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>-45.35</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-45.19</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>-20.14</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>-45.23</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>-45.22</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>-39.54</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>-43.15</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>-7.93</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>-27.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
